--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.317727218227285</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N2">
-        <v>0.317727218227285</v>
+        <v>1.14273</v>
       </c>
       <c r="O2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q2">
-        <v>4.276792436225258</v>
+        <v>7.170627956659999</v>
       </c>
       <c r="R2">
-        <v>4.276792436225258</v>
+        <v>64.53565160993999</v>
       </c>
       <c r="S2">
-        <v>0.0003374816327871442</v>
+        <v>0.0004569942830187589</v>
       </c>
       <c r="T2">
-        <v>0.0003374816327871442</v>
+        <v>0.000456994283018759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.3201449905407</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>50.3201449905407</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q3">
-        <v>677.3383051223327</v>
+        <v>6.014233757136889</v>
       </c>
       <c r="R3">
-        <v>677.3383051223327</v>
+        <v>54.12810381423201</v>
       </c>
       <c r="S3">
-        <v>0.05344875641515046</v>
+        <v>0.0003832956416595622</v>
       </c>
       <c r="T3">
-        <v>0.05344875641515046</v>
+        <v>0.0003832956416595623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31433395427447</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N4">
-        <v>1.31433395427447</v>
+        <v>164.082119</v>
       </c>
       <c r="O4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q4">
-        <v>17.69169649889432</v>
+        <v>1029.614895635376</v>
       </c>
       <c r="R4">
-        <v>17.69169649889432</v>
+        <v>9266.534060718381</v>
       </c>
       <c r="S4">
-        <v>0.001396051529330516</v>
+        <v>0.06561881663087843</v>
       </c>
       <c r="T4">
-        <v>0.001396051529330516</v>
+        <v>0.06561881663087843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>120.796654575229</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>120.796654575229</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.4952116691091795</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.4952116691091795</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.317727218227285</v>
+        <v>2.008422</v>
       </c>
       <c r="N5">
-        <v>0.317727218227285</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q5">
-        <v>38.38038502934975</v>
+        <v>37.808529421572</v>
       </c>
       <c r="R5">
-        <v>38.38038502934975</v>
+        <v>340.2767647941479</v>
       </c>
       <c r="S5">
-        <v>0.003028595658978575</v>
+        <v>0.002409591168226358</v>
       </c>
       <c r="T5">
-        <v>0.003028595658978575</v>
+        <v>0.002409591168226358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>50.3201449905407</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N6">
-        <v>50.3201449905407</v>
+        <v>1.14273</v>
       </c>
       <c r="O6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q6">
-        <v>6078.505172597785</v>
+        <v>46.40279609869</v>
       </c>
       <c r="R6">
-        <v>6078.505172597785</v>
+        <v>417.62516488821</v>
       </c>
       <c r="S6">
-        <v>0.4796547602305374</v>
+        <v>0.002957315964704427</v>
       </c>
       <c r="T6">
-        <v>0.4796547602305374</v>
+        <v>0.002957315964704428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31433395427447</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>1.31433395427447</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q7">
-        <v>158.767144670988</v>
+        <v>38.91950111050978</v>
       </c>
       <c r="R7">
-        <v>158.767144670988</v>
+        <v>350.275509994588</v>
       </c>
       <c r="S7">
-        <v>0.0125283132196635</v>
+        <v>0.002480394968606032</v>
       </c>
       <c r="T7">
-        <v>0.0125283132196635</v>
+        <v>0.002480394968606033</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>73.8347098435864</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>73.8347098435864</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317727218227285</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N8">
-        <v>0.317727218227285</v>
+        <v>164.082119</v>
       </c>
       <c r="O8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q8">
-        <v>23.45929696722144</v>
+        <v>6662.876717508063</v>
       </c>
       <c r="R8">
-        <v>23.45929696722144</v>
+        <v>59965.89045757256</v>
       </c>
       <c r="S8">
-        <v>0.001851172803589246</v>
+        <v>0.424634576882756</v>
       </c>
       <c r="T8">
-        <v>0.001851172803589246</v>
+        <v>0.424634576882756</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>73.8347098435864</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>73.8347098435864</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.3201449905407</v>
+        <v>2.008422</v>
       </c>
       <c r="N9">
-        <v>50.3201449905407</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q9">
-        <v>3715.37330466377</v>
+        <v>244.667760221898</v>
       </c>
       <c r="R9">
-        <v>3715.37330466377</v>
+        <v>2202.009841997082</v>
       </c>
       <c r="S9">
-        <v>0.293180056776002</v>
+        <v>0.01559302314054133</v>
       </c>
       <c r="T9">
-        <v>0.293180056776002</v>
+        <v>0.01559302314054133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.31433395427447</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N10">
-        <v>1.31433395427447</v>
+        <v>1.14273</v>
       </c>
       <c r="O10">
-        <v>0.02529890550075341</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P10">
-        <v>0.02529890550075341</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q10">
-        <v>97.04346615142904</v>
+        <v>33.39574526234999</v>
       </c>
       <c r="R10">
-        <v>97.04346615142904</v>
+        <v>300.56170736115</v>
       </c>
       <c r="S10">
-        <v>0.007657698589883888</v>
+        <v>0.002128358179267952</v>
       </c>
       <c r="T10">
-        <v>0.007657698589883888</v>
+        <v>0.002128358179267953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.8373941381059</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>35.8373941381059</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.317727218227285</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.317727218227285</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.006115759881883679</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P11">
-        <v>0.006115759881883679</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q11">
-        <v>11.3865155480152</v>
+        <v>28.01007383391334</v>
       </c>
       <c r="R11">
-        <v>11.3865155480152</v>
+        <v>252.09066450522</v>
       </c>
       <c r="S11">
-        <v>0.0008985097865287134</v>
+        <v>0.001785121705713768</v>
       </c>
       <c r="T11">
-        <v>0.0008985097865287134</v>
+        <v>0.001785121705713768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.8373941381059</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>35.8373941381059</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.3201449905407</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N12">
-        <v>50.3201449905407</v>
+        <v>164.082119</v>
       </c>
       <c r="O12">
-        <v>0.968585334617363</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P12">
-        <v>0.968585334617363</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q12">
-        <v>1803.342869112642</v>
+        <v>4795.222535708871</v>
       </c>
       <c r="R12">
-        <v>1803.342869112642</v>
+        <v>43157.00282137984</v>
       </c>
       <c r="S12">
-        <v>0.1423017611956731</v>
+        <v>0.3056063287436819</v>
       </c>
       <c r="T12">
-        <v>0.1423017611956731</v>
+        <v>0.3056063287436819</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.8373941381059</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>35.8373941381059</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.31433395427447</v>
+        <v>2.008422</v>
       </c>
       <c r="N13">
-        <v>1.31433395427447</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O13">
-        <v>0.02529890550075341</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P13">
-        <v>0.02529890550075341</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q13">
-        <v>47.10230394842944</v>
+        <v>176.08555693287</v>
       </c>
       <c r="R13">
-        <v>47.10230394842944</v>
+        <v>1584.77001239583</v>
       </c>
       <c r="S13">
-        <v>0.00371684216187551</v>
+        <v>0.01122218211945525</v>
       </c>
       <c r="T13">
-        <v>0.00371684216187551</v>
+        <v>0.01122218211945525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H14">
+        <v>135.080009</v>
+      </c>
+      <c r="I14">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J14">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.14273</v>
+      </c>
+      <c r="O14">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P14">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q14">
+        <v>17.15110874273</v>
+      </c>
+      <c r="R14">
+        <v>154.35997868457</v>
+      </c>
+      <c r="S14">
+        <v>0.00109306446942082</v>
+      </c>
+      <c r="T14">
+        <v>0.001093064469420821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H15">
+        <v>135.080009</v>
+      </c>
+      <c r="I15">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J15">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P15">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q15">
+        <v>14.38518046066622</v>
+      </c>
+      <c r="R15">
+        <v>129.466624145996</v>
+      </c>
+      <c r="S15">
+        <v>0.0009167879396966642</v>
+      </c>
+      <c r="T15">
+        <v>0.0009167879396966643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H16">
+        <v>135.080009</v>
+      </c>
+      <c r="I16">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J16">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N16">
+        <v>164.082119</v>
+      </c>
+      <c r="O16">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P16">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q16">
+        <v>2462.690456806563</v>
+      </c>
+      <c r="R16">
+        <v>22164.21411125907</v>
+      </c>
+      <c r="S16">
+        <v>0.1569507533242139</v>
+      </c>
+      <c r="T16">
+        <v>0.1569507533242139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H17">
+        <v>135.080009</v>
+      </c>
+      <c r="I17">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J17">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.008422</v>
+      </c>
+      <c r="N17">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P17">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q17">
+        <v>90.43255394526599</v>
+      </c>
+      <c r="R17">
+        <v>813.8929855073939</v>
+      </c>
+      <c r="S17">
+        <v>0.005763394838158892</v>
+      </c>
+      <c r="T17">
+        <v>0.005763394838158892</v>
       </c>
     </row>
   </sheetData>
